--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" tabRatio="528" activeTab="5"/>
+    <workbookView windowWidth="20588" windowHeight="9728" tabRatio="528" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="239">
   <si>
     <t>事件$ID$long</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>地点名称$Name$string</t>
+  </si>
+  <si>
+    <t>地图$MapID$long</t>
   </si>
   <si>
     <t>场景名称$Scene$string</t>
@@ -743,52 +746,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -802,7 +768,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,11 +788,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -838,11 +804,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -856,9 +861,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -867,14 +872,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,15 +884,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,7 +913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +925,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,7 +1003,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,151 +1087,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,12 +1122,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1134,7 +1150,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,30 +1166,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,6 +1193,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1209,10 +1212,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,133 +1224,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1691,18 +1694,18 @@
       <selection pane="topRight" activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="19.7685185185185" customWidth="1"/>
-    <col min="2" max="2" width="26.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="21.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="26.4907407407407" customWidth="1"/>
-    <col min="5" max="5" width="65.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="43.6944444444444" customWidth="1"/>
-    <col min="7" max="7" width="74.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="41.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="22.1574074074074" customWidth="1"/>
-    <col min="10" max="10" width="46.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="19.7657657657658" customWidth="1"/>
+    <col min="2" max="2" width="26.5585585585586" customWidth="1"/>
+    <col min="3" max="3" width="21.0810810810811" customWidth="1"/>
+    <col min="4" max="4" width="26.4864864864865" customWidth="1"/>
+    <col min="5" max="5" width="65.1081081081081" customWidth="1"/>
+    <col min="6" max="6" width="43.6936936936937" customWidth="1"/>
+    <col min="7" max="7" width="74.8918918918919" customWidth="1"/>
+    <col min="8" max="8" width="41.1081081081081" customWidth="1"/>
+    <col min="9" max="9" width="22.1531531531532" customWidth="1"/>
+    <col min="10" max="10" width="46.5585585585586" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2462,7 +2465,7 @@
         <v>40011</v>
       </c>
     </row>
-    <row r="42" ht="28.8" spans="1:7">
+    <row r="42" ht="28.3" spans="1:7">
       <c r="A42">
         <v>40011</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" ht="43.2" spans="1:7">
+    <row r="45" ht="42.45" spans="1:7">
       <c r="A45">
         <v>40014</v>
       </c>
@@ -2568,26 +2571,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61111111111111" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.5185185185185" customWidth="1"/>
-    <col min="2" max="2" width="27.1018518518519" customWidth="1"/>
-    <col min="3" max="3" width="22.7037037037037" customWidth="1"/>
-    <col min="4" max="4" width="23.0925925925926" customWidth="1"/>
-    <col min="5" max="5" width="28.1759259259259" customWidth="1"/>
-    <col min="6" max="6" width="23.0925925925926" customWidth="1"/>
-    <col min="7" max="7" width="39.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="18.9166666666667" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="1" max="1" width="14.5225225225225" customWidth="1"/>
+    <col min="2" max="2" width="27.0990990990991" customWidth="1"/>
+    <col min="3" max="3" width="22.7027027027027" customWidth="1"/>
+    <col min="4" max="5" width="23.0900900900901" customWidth="1"/>
+    <col min="6" max="6" width="28.1801801801802" customWidth="1"/>
+    <col min="7" max="7" width="23.0900900900901" customWidth="1"/>
+    <col min="8" max="8" width="39.2252252252252" customWidth="1"/>
+    <col min="9" max="9" width="18.9189189189189" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -2609,8 +2612,11 @@
       <c r="G1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -2618,22 +2624,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
         <v>113</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>-1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -2641,16 +2650,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" t="s">
         <v>116</v>
       </c>
-      <c r="F3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>20001</v>
       </c>
@@ -2658,19 +2670,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" t="s">
         <v>118</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>119</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4">
         <v>10001</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>20002</v>
       </c>
@@ -2678,19 +2693,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
         <v>121</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>122</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5">
         <v>10001</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>20003</v>
       </c>
@@ -2698,19 +2716,22 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" t="s">
         <v>124</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>125</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6">
         <v>10001</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>20004</v>
       </c>
@@ -2718,19 +2739,22 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" t="s">
         <v>127</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>128</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7">
         <v>10001</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>20005</v>
       </c>
@@ -2738,15 +2762,18 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" t="s">
         <v>130</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8">
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8">
         <v>10001</v>
       </c>
     </row>
@@ -2765,35 +2792,35 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61111111111111" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.6759259259259" customWidth="1"/>
-    <col min="2" max="2" width="20.3055555555556" customWidth="1"/>
-    <col min="3" max="3" width="22.3148148148148" customWidth="1"/>
-    <col min="4" max="4" width="31.9722222222222" customWidth="1"/>
-    <col min="5" max="5" width="40.2962962962963" customWidth="1"/>
-    <col min="6" max="6" width="27.6388888888889" customWidth="1"/>
-    <col min="7" max="7" width="15.5185185185185" customWidth="1"/>
+    <col min="1" max="1" width="15.6756756756757" customWidth="1"/>
+    <col min="2" max="2" width="20.3063063063063" customWidth="1"/>
+    <col min="3" max="3" width="22.3153153153153" customWidth="1"/>
+    <col min="4" max="4" width="31.972972972973" customWidth="1"/>
+    <col min="5" max="5" width="40.2972972972973" customWidth="1"/>
+    <col min="6" max="6" width="27.6396396396396" customWidth="1"/>
+    <col min="7" max="7" width="15.5225225225225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2801,13 +2828,13 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2">
         <v>20001</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2815,13 +2842,13 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3">
         <v>20002</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2829,7 +2856,7 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4">
         <v>20004</v>
@@ -2840,7 +2867,7 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5">
         <v>20005</v>
@@ -2861,46 +2888,46 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61111111111111" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="13.0462962962963" customWidth="1"/>
-    <col min="2" max="2" width="24.3240740740741" customWidth="1"/>
-    <col min="3" max="3" width="30.6574074074074" customWidth="1"/>
-    <col min="4" max="4" width="22.0092592592593" customWidth="1"/>
-    <col min="5" max="5" width="43.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.7037037037037" customWidth="1"/>
-    <col min="7" max="7" width="27.2407407407407" customWidth="1"/>
+    <col min="1" max="1" width="13.045045045045" customWidth="1"/>
+    <col min="2" max="2" width="24.3243243243243" customWidth="1"/>
+    <col min="3" max="3" width="30.6576576576577" customWidth="1"/>
+    <col min="4" max="4" width="22.009009009009" customWidth="1"/>
+    <col min="5" max="5" width="43.5585585585586" customWidth="1"/>
+    <col min="6" max="6" width="23.7027027027027" customWidth="1"/>
+    <col min="7" max="7" width="27.2432432432432" customWidth="1"/>
     <col min="8" max="8" width="53.3333333333333" customWidth="1"/>
     <col min="9" max="9" width="75.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2914,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -2937,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2960,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" t="s">
         <v>154</v>
-      </c>
-      <c r="E4" t="s">
-        <v>153</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2983,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3006,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3029,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3052,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3075,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3098,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3121,10 +3148,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3144,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3167,10 +3194,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3190,10 +3217,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" t="s">
         <v>166</v>
-      </c>
-      <c r="E14" t="s">
-        <v>165</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3205,7 +3232,7 @@
         <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3219,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3242,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" t="s">
         <v>170</v>
-      </c>
-      <c r="E16" t="s">
-        <v>169</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3265,10 +3292,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3288,10 +3315,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3311,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3338,88 +3365,88 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61111111111111" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="14.5092592592593" customWidth="1"/>
-    <col min="3" max="3" width="19.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="19.6851851851852" customWidth="1"/>
-    <col min="5" max="5" width="24.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="19.6851851851852" customWidth="1"/>
-    <col min="7" max="7" width="15.6759259259259" customWidth="1"/>
-    <col min="8" max="9" width="21.2222222222222" customWidth="1"/>
-    <col min="10" max="11" width="17.9074074074074" customWidth="1"/>
-    <col min="12" max="12" width="15.6759259259259" customWidth="1"/>
-    <col min="13" max="14" width="21.2222222222222" customWidth="1"/>
-    <col min="15" max="16" width="17.9074074074074" customWidth="1"/>
-    <col min="17" max="17" width="15.6759259259259" customWidth="1"/>
-    <col min="18" max="19" width="21.2222222222222" customWidth="1"/>
-    <col min="20" max="20" width="17.9074074074074" customWidth="1"/>
-    <col min="21" max="21" width="14.9722222222222" customWidth="1"/>
+    <col min="1" max="2" width="14.5135135135135" customWidth="1"/>
+    <col min="3" max="3" width="19.3783783783784" customWidth="1"/>
+    <col min="4" max="4" width="19.6846846846847" customWidth="1"/>
+    <col min="5" max="5" width="24.2252252252252" customWidth="1"/>
+    <col min="6" max="6" width="19.6846846846847" customWidth="1"/>
+    <col min="7" max="7" width="15.6756756756757" customWidth="1"/>
+    <col min="8" max="9" width="21.2252252252252" customWidth="1"/>
+    <col min="10" max="11" width="17.9099099099099" customWidth="1"/>
+    <col min="12" max="12" width="15.6756756756757" customWidth="1"/>
+    <col min="13" max="14" width="21.2252252252252" customWidth="1"/>
+    <col min="15" max="16" width="17.9099099099099" customWidth="1"/>
+    <col min="17" max="17" width="15.6756756756757" customWidth="1"/>
+    <col min="18" max="19" width="21.2252252252252" customWidth="1"/>
+    <col min="20" max="20" width="17.9099099099099" customWidth="1"/>
+    <col min="21" max="21" width="14.972972972973" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" t="s">
         <v>183</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>184</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>185</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>186</v>
       </c>
-      <c r="L1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" t="s">
         <v>183</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>184</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>185</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>186</v>
       </c>
-      <c r="Q1" t="s">
-        <v>182</v>
-      </c>
-      <c r="R1" t="s">
-        <v>183</v>
-      </c>
-      <c r="S1" t="s">
-        <v>184</v>
-      </c>
-      <c r="T1" t="s">
-        <v>185</v>
-      </c>
       <c r="U1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3427,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C2">
         <v>10002</v>
@@ -3480,7 +3507,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C3">
         <v>10004</v>
@@ -3527,38 +3554,38 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61111111111111" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.2222222222222" customWidth="1"/>
-    <col min="2" max="3" width="22.2314814814815" customWidth="1"/>
-    <col min="4" max="4" width="29.1018518518519" customWidth="1"/>
-    <col min="5" max="5" width="32.962962962963" customWidth="1"/>
+    <col min="1" max="1" width="18.2252252252252" customWidth="1"/>
+    <col min="2" max="3" width="22.2342342342342" customWidth="1"/>
+    <col min="4" max="4" width="29.0990990990991" customWidth="1"/>
+    <col min="5" max="5" width="32.963963963964" customWidth="1"/>
     <col min="6" max="6" width="50.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3566,19 +3593,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3586,19 +3613,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3606,19 +3633,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3626,19 +3653,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3652,13 +3679,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3666,16 +3693,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3683,19 +3710,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3703,16 +3730,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3730,52 +3757,52 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61111111111111" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="20.3055555555556" customWidth="1"/>
-    <col min="3" max="4" width="15.5185185185185" customWidth="1"/>
-    <col min="5" max="5" width="43.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="53.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="27.8611111111111" customWidth="1"/>
-    <col min="8" max="9" width="23.7037037037037" customWidth="1"/>
-    <col min="10" max="10" width="25.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="15.5185185185185" customWidth="1"/>
-    <col min="12" max="12" width="15.6759259259259" customWidth="1"/>
+    <col min="2" max="2" width="20.3063063063063" customWidth="1"/>
+    <col min="3" max="4" width="15.5225225225225" customWidth="1"/>
+    <col min="5" max="5" width="43.7747747747748" customWidth="1"/>
+    <col min="6" max="6" width="53.2252252252252" customWidth="1"/>
+    <col min="7" max="7" width="27.8648648648649" customWidth="1"/>
+    <col min="8" max="9" width="23.7027027027027" customWidth="1"/>
+    <col min="10" max="10" width="25.1621621621622" customWidth="1"/>
+    <col min="11" max="11" width="15.5225225225225" customWidth="1"/>
+    <col min="12" max="12" width="15.6756756756757" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3792,10 +3819,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3827,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3853,7 +3880,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3862,10 +3889,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G4">
         <v>3</v>

--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20588" windowHeight="9728" tabRatio="528" activeTab="1"/>
+    <workbookView windowHeight="22780" tabRatio="528" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="238">
   <si>
     <t>事件$ID$long</t>
   </si>
@@ -711,6 +711,9 @@
     <t>$Cost$string</t>
   </si>
   <si>
+    <t>$CoolDown$float</t>
+  </si>
+  <si>
     <t>$Attack$int</t>
   </si>
   <si>
@@ -733,12 +736,6 @@
   </si>
   <si>
     <t>江湖剑法</t>
-  </si>
-  <si>
-    <t>(BattleNormalAttack@&amp;BattleEffect@)</t>
-  </si>
-  <si>
-    <t>(BattlePropertyCost@["energy", 3]&amp;BattleCost@)</t>
   </si>
 </sst>
 </file>
@@ -746,9 +743,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -761,21 +758,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,6 +786,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -812,18 +817,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -844,24 +842,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,7 +858,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,8 +879,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,25 +910,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,25 +934,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,13 +970,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,43 +1018,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,25 +1060,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,7 +1078,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,6 +1104,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1122,35 +1128,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,11 +1167,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,153 +1192,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1370,54 +1367,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1694,18 +1691,18 @@
       <selection pane="topRight" activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="19.7657657657658" customWidth="1"/>
-    <col min="2" max="2" width="26.5585585585586" customWidth="1"/>
-    <col min="3" max="3" width="21.0810810810811" customWidth="1"/>
-    <col min="4" max="4" width="26.4864864864865" customWidth="1"/>
-    <col min="5" max="5" width="65.1081081081081" customWidth="1"/>
-    <col min="6" max="6" width="43.6936936936937" customWidth="1"/>
-    <col min="7" max="7" width="74.8918918918919" customWidth="1"/>
-    <col min="8" max="8" width="41.1081081081081" customWidth="1"/>
-    <col min="9" max="9" width="22.1531531531532" customWidth="1"/>
-    <col min="10" max="10" width="46.5585585585586" customWidth="1"/>
+    <col min="1" max="1" width="19.7692307692308" customWidth="1"/>
+    <col min="2" max="2" width="26.5576923076923" customWidth="1"/>
+    <col min="3" max="3" width="21.0769230769231" customWidth="1"/>
+    <col min="4" max="4" width="26.4903846153846" customWidth="1"/>
+    <col min="5" max="5" width="65.1057692307692" customWidth="1"/>
+    <col min="6" max="6" width="43.6923076923077" customWidth="1"/>
+    <col min="7" max="7" width="74.8942307692308" customWidth="1"/>
+    <col min="8" max="8" width="41.1057692307692" customWidth="1"/>
+    <col min="9" max="9" width="22.1538461538462" customWidth="1"/>
+    <col min="10" max="10" width="46.5576923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2465,7 +2462,7 @@
         <v>40011</v>
       </c>
     </row>
-    <row r="42" ht="28.3" spans="1:7">
+    <row r="42" ht="34" spans="1:7">
       <c r="A42">
         <v>40011</v>
       </c>
@@ -2528,7 +2525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" ht="42.45" spans="1:7">
+    <row r="45" ht="51" spans="1:7">
       <c r="A45">
         <v>40014</v>
       </c>
@@ -2573,20 +2570,20 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.5225225225225" customWidth="1"/>
-    <col min="2" max="2" width="27.0990990990991" customWidth="1"/>
-    <col min="3" max="3" width="22.7027027027027" customWidth="1"/>
-    <col min="4" max="5" width="23.0900900900901" customWidth="1"/>
-    <col min="6" max="6" width="28.1801801801802" customWidth="1"/>
-    <col min="7" max="7" width="23.0900900900901" customWidth="1"/>
-    <col min="8" max="8" width="39.2252252252252" customWidth="1"/>
-    <col min="9" max="9" width="18.9189189189189" customWidth="1"/>
+    <col min="1" max="1" width="14.5192307692308" customWidth="1"/>
+    <col min="2" max="2" width="27.0961538461538" customWidth="1"/>
+    <col min="3" max="3" width="22.7019230769231" customWidth="1"/>
+    <col min="4" max="5" width="23.0865384615385" customWidth="1"/>
+    <col min="6" max="6" width="28.1826923076923" customWidth="1"/>
+    <col min="7" max="7" width="23.0865384615385" customWidth="1"/>
+    <col min="8" max="8" width="39.2211538461538" customWidth="1"/>
+    <col min="9" max="9" width="18.9230769230769" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2792,15 +2789,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.6756756756757" customWidth="1"/>
-    <col min="2" max="2" width="20.3063063063063" customWidth="1"/>
-    <col min="3" max="3" width="22.3153153153153" customWidth="1"/>
-    <col min="4" max="4" width="31.972972972973" customWidth="1"/>
-    <col min="5" max="5" width="40.2972972972973" customWidth="1"/>
-    <col min="6" max="6" width="27.6396396396396" customWidth="1"/>
-    <col min="7" max="7" width="15.5225225225225" customWidth="1"/>
+    <col min="1" max="1" width="15.6730769230769" customWidth="1"/>
+    <col min="2" max="2" width="20.3076923076923" customWidth="1"/>
+    <col min="3" max="3" width="22.3173076923077" customWidth="1"/>
+    <col min="4" max="4" width="31.9711538461538" customWidth="1"/>
+    <col min="5" max="5" width="40.2980769230769" customWidth="1"/>
+    <col min="6" max="6" width="27.6442307692308" customWidth="1"/>
+    <col min="7" max="7" width="15.5192307692308" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2888,17 +2885,17 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="13.045045045045" customWidth="1"/>
-    <col min="2" max="2" width="24.3243243243243" customWidth="1"/>
-    <col min="3" max="3" width="30.6576576576577" customWidth="1"/>
-    <col min="4" max="4" width="22.009009009009" customWidth="1"/>
-    <col min="5" max="5" width="43.5585585585586" customWidth="1"/>
-    <col min="6" max="6" width="23.7027027027027" customWidth="1"/>
-    <col min="7" max="7" width="27.2432432432432" customWidth="1"/>
-    <col min="8" max="8" width="53.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="75.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.0480769230769" customWidth="1"/>
+    <col min="2" max="2" width="24.3269230769231" customWidth="1"/>
+    <col min="3" max="3" width="30.6538461538462" customWidth="1"/>
+    <col min="4" max="4" width="22.0096153846154" customWidth="1"/>
+    <col min="5" max="5" width="43.5576923076923" customWidth="1"/>
+    <col min="6" max="6" width="23.7019230769231" customWidth="1"/>
+    <col min="7" max="7" width="27.2403846153846" customWidth="1"/>
+    <col min="8" max="8" width="53.3365384615385" customWidth="1"/>
+    <col min="9" max="9" width="75.3365384615385" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3365,23 +3362,23 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="14.5135135135135" customWidth="1"/>
-    <col min="3" max="3" width="19.3783783783784" customWidth="1"/>
-    <col min="4" max="4" width="19.6846846846847" customWidth="1"/>
-    <col min="5" max="5" width="24.2252252252252" customWidth="1"/>
-    <col min="6" max="6" width="19.6846846846847" customWidth="1"/>
-    <col min="7" max="7" width="15.6756756756757" customWidth="1"/>
-    <col min="8" max="9" width="21.2252252252252" customWidth="1"/>
-    <col min="10" max="11" width="17.9099099099099" customWidth="1"/>
-    <col min="12" max="12" width="15.6756756756757" customWidth="1"/>
-    <col min="13" max="14" width="21.2252252252252" customWidth="1"/>
-    <col min="15" max="16" width="17.9099099099099" customWidth="1"/>
-    <col min="17" max="17" width="15.6756756756757" customWidth="1"/>
-    <col min="18" max="19" width="21.2252252252252" customWidth="1"/>
-    <col min="20" max="20" width="17.9099099099099" customWidth="1"/>
-    <col min="21" max="21" width="14.972972972973" customWidth="1"/>
+    <col min="1" max="2" width="14.5096153846154" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="19.6826923076923" customWidth="1"/>
+    <col min="5" max="5" width="24.2211538461538" customWidth="1"/>
+    <col min="6" max="6" width="19.6826923076923" customWidth="1"/>
+    <col min="7" max="7" width="15.6730769230769" customWidth="1"/>
+    <col min="8" max="9" width="21.2211538461538" customWidth="1"/>
+    <col min="10" max="11" width="17.9134615384615" customWidth="1"/>
+    <col min="12" max="12" width="15.6730769230769" customWidth="1"/>
+    <col min="13" max="14" width="21.2211538461538" customWidth="1"/>
+    <col min="15" max="16" width="17.9134615384615" customWidth="1"/>
+    <col min="17" max="17" width="15.6730769230769" customWidth="1"/>
+    <col min="18" max="19" width="21.2211538461538" customWidth="1"/>
+    <col min="20" max="20" width="17.9134615384615" customWidth="1"/>
+    <col min="21" max="21" width="14.9711538461538" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -3558,14 +3555,14 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.2252252252252" customWidth="1"/>
-    <col min="2" max="3" width="22.2342342342342" customWidth="1"/>
-    <col min="4" max="4" width="29.0990990990991" customWidth="1"/>
-    <col min="5" max="5" width="32.963963963964" customWidth="1"/>
-    <col min="6" max="6" width="50.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.2211538461538" customWidth="1"/>
+    <col min="2" max="3" width="22.2307692307692" customWidth="1"/>
+    <col min="4" max="4" width="29.0961538461538" customWidth="1"/>
+    <col min="5" max="5" width="32.9615384615385" customWidth="1"/>
+    <col min="6" max="6" width="50.3365384615385" customWidth="1"/>
+    <col min="7" max="7" width="14.6634615384615" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3751,26 +3748,26 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="20.3063063063063" customWidth="1"/>
-    <col min="3" max="4" width="15.5225225225225" customWidth="1"/>
-    <col min="5" max="5" width="43.7747747747748" customWidth="1"/>
-    <col min="6" max="6" width="53.2252252252252" customWidth="1"/>
-    <col min="7" max="7" width="27.8648648648649" customWidth="1"/>
-    <col min="8" max="9" width="23.7027027027027" customWidth="1"/>
-    <col min="10" max="10" width="25.1621621621622" customWidth="1"/>
-    <col min="11" max="11" width="15.5225225225225" customWidth="1"/>
-    <col min="12" max="12" width="15.6756756756757" customWidth="1"/>
+    <col min="2" max="2" width="20.3076923076923" customWidth="1"/>
+    <col min="3" max="4" width="15.5192307692308" customWidth="1"/>
+    <col min="5" max="5" width="43.7788461538462" customWidth="1"/>
+    <col min="6" max="6" width="53.2211538461538" customWidth="1"/>
+    <col min="7" max="8" width="27.8653846153846" customWidth="1"/>
+    <col min="9" max="10" width="23.7019230769231" customWidth="1"/>
+    <col min="11" max="11" width="25.1634615384615" customWidth="1"/>
+    <col min="12" max="12" width="15.5192307692308" customWidth="1"/>
+    <col min="13" max="13" width="15.6730769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>177</v>
       </c>
@@ -3804,8 +3801,11 @@
       <c r="K1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3819,28 +3819,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3854,33 +3857,36 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>4</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3888,18 +3894,14 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" t="s">
-        <v>238</v>
-      </c>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4">
+        <v>0.25</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="I4">
         <v>1</v>
       </c>
@@ -3907,6 +3909,9 @@
         <v>1</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
     </row>

--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22780" tabRatio="528" activeTab="6"/>
+    <workbookView windowHeight="22200" tabRatio="528" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -3751,7 +3751,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="3"/>
@@ -3897,7 +3897,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="H4">
         <v>3</v>

--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22200" tabRatio="528" activeTab="6"/>
+    <workbookView windowWidth="30240" windowHeight="13760" tabRatio="528" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="ShopConfig" sheetId="6" r:id="rId5"/>
     <sheet name="Command" sheetId="4" r:id="rId6"/>
     <sheet name="Skill" sheetId="7" r:id="rId7"/>
+    <sheet name="InteractMenuConfig" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="244">
   <si>
     <t>事件$ID$long</t>
   </si>
@@ -736,6 +737,24 @@
   </si>
   <si>
     <t>江湖剑法</t>
+  </si>
+  <si>
+    <t>$IconPath$string</t>
+  </si>
+  <si>
+    <t>$MenuResolver$string</t>
+  </si>
+  <si>
+    <t>$keyCode$long</t>
+  </si>
+  <si>
+    <t>互动</t>
+  </si>
+  <si>
+    <t>InteractToNPC@</t>
+  </si>
+  <si>
+    <t>对话</t>
   </si>
 </sst>
 </file>
@@ -743,10 +762,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -778,16 +797,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,6 +824,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,22 +848,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -851,14 +869,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,24 +884,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -894,8 +904,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,6 +935,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -928,13 +959,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +977,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,19 +1043,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,115 +1109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,6 +1128,56 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,37 +1201,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,167 +1220,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3750,8 +3769,8 @@
   <sheetPr/>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="3"/>
@@ -3894,8 +3913,6 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
       <c r="G4">
         <v>0.35</v>
       </c>
@@ -3913,6 +3930,75 @@
       </c>
       <c r="L4">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="20.5096153846154" customWidth="1"/>
+    <col min="2" max="2" width="16.3365384615385" customWidth="1"/>
+    <col min="3" max="3" width="22.4326923076923" customWidth="1"/>
+    <col min="4" max="4" width="22.2692307692308" customWidth="1"/>
+    <col min="5" max="5" width="21.7884615384615" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13760" tabRatio="528" firstSheet="1" activeTab="7"/>
+    <workbookView windowHeight="22720" tabRatio="528"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="245">
   <si>
     <t>事件$ID$long</t>
   </si>
@@ -315,7 +315,7 @@
 钓到不同种类的鱼类，当然需要你的钓鱼技术够好才能钓到大鱼。</t>
   </si>
   <si>
-    <t>Talk@[10003,"{$description}"]</t>
+    <t>Talk@[10003,"{$description}", 40012, 40013]</t>
   </si>
   <si>
     <t>询问渔夫如何获得鱼竿。</t>
@@ -335,6 +335,9 @@
   <si>
     <t xml:space="preserve">集市里有时可以买到制作好的鱼竿，当然你也可以准备好竹竿和鱼线来找我，我会帮你制作好。
 </t>
+  </si>
+  <si>
+    <t>Talk@[10003,"{$description}"]</t>
   </si>
   <si>
     <t>集市里有时可以买到鱼饵，也可以通过野外采集获得。</t>
@@ -777,20 +780,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -798,7 +787,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -806,14 +795,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,9 +809,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,17 +818,24 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -875,8 +863,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,7 +888,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,17 +916,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,7 +932,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,73 +1040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,37 +1052,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,13 +1082,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,31 +1112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,58 +1129,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,7 +1154,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,153 +1188,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1704,10 +1707,10 @@
   <sheetPr/>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection pane="topRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
@@ -2481,7 +2484,7 @@
         <v>40011</v>
       </c>
     </row>
-    <row r="42" ht="34" spans="1:7">
+    <row r="42" ht="34" spans="1:6">
       <c r="A42">
         <v>40011</v>
       </c>
@@ -2494,7 +2497,7 @@
       <c r="E42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2544,7 +2547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" ht="51" spans="1:7">
+    <row r="45" ht="51" spans="1:6">
       <c r="A45">
         <v>40014</v>
       </c>
@@ -2557,11 +2560,11 @@
       <c r="E45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="F45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>40015</v>
       </c>
@@ -2572,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" t="s">
         <v>104</v>
-      </c>
-      <c r="G46" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2608,28 +2611,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2640,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2655,7 +2658,7 @@
         <v>-1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2666,13 +2669,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -2686,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G4">
         <v>10001</v>
@@ -2709,16 +2712,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G5">
         <v>10001</v>
@@ -2732,16 +2735,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>10001</v>
@@ -2755,16 +2758,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G7">
         <v>10001</v>
@@ -2778,16 +2781,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>10001</v>
@@ -2821,22 +2824,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2844,13 +2847,13 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2">
         <v>20001</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2858,13 +2861,13 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3">
         <v>20002</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2872,7 +2875,7 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4">
         <v>20004</v>
@@ -2883,7 +2886,7 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5">
         <v>20005</v>
@@ -2919,31 +2922,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2957,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -2980,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3003,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" t="s">
         <v>155</v>
-      </c>
-      <c r="E4" t="s">
-        <v>154</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3026,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3049,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3072,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3095,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3118,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3141,10 +3144,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3164,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3187,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3210,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3233,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" t="s">
         <v>167</v>
-      </c>
-      <c r="E14" t="s">
-        <v>166</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3248,7 +3251,7 @@
         <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3262,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3285,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" t="s">
         <v>171</v>
-      </c>
-      <c r="E16" t="s">
-        <v>170</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3308,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3331,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3354,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3402,67 +3405,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" t="s">
         <v>184</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>185</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>186</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>187</v>
       </c>
-      <c r="L1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" t="s">
         <v>184</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>185</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>186</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>187</v>
       </c>
-      <c r="Q1" t="s">
-        <v>183</v>
-      </c>
-      <c r="R1" t="s">
-        <v>184</v>
-      </c>
-      <c r="S1" t="s">
-        <v>185</v>
-      </c>
-      <c r="T1" t="s">
-        <v>186</v>
-      </c>
       <c r="U1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3470,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C2">
         <v>10002</v>
@@ -3523,7 +3526,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C3">
         <v>10004</v>
@@ -3586,22 +3589,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3609,19 +3612,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3629,19 +3632,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3649,19 +3652,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3669,19 +3672,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3695,13 +3698,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3709,16 +3712,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3726,19 +3729,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3746,16 +3749,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3788,40 +3791,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3838,10 +3841,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3876,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3905,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3943,7 +3946,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -3958,19 +3961,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3978,10 +3981,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E2">
         <v>101</v>
@@ -3992,10 +3995,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" t="s">
         <v>243</v>
-      </c>
-      <c r="D3" t="s">
-        <v>242</v>
       </c>
       <c r="E3">
         <v>101</v>

--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22720" tabRatio="528"/>
+    <workbookView windowWidth="30240" windowHeight="13760" tabRatio="528" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="244">
   <si>
     <t>事件$ID$long</t>
   </si>
@@ -254,13 +254,10 @@
     <t>老板询问你是否来看病。</t>
   </si>
   <si>
-    <t>Confirm@先生来看病？</t>
-  </si>
-  <si>
-    <t>40002, 40003</t>
-  </si>
-  <si>
-    <t>你想让医馆大夫为你把脉。</t>
+    <t>Talk@[10003,"{$description}", 0, 40002]</t>
+  </si>
+  <si>
+    <t>让医馆大夫为你把脉。</t>
   </si>
   <si>
     <t>你觉得身体没有问题。</t>
@@ -315,7 +312,7 @@
 钓到不同种类的鱼类，当然需要你的钓鱼技术够好才能钓到大鱼。</t>
   </si>
   <si>
-    <t>Talk@[10003,"{$description}", 40012, 40013]</t>
+    <t>Talk@[10003,"{$description}", 0, 40012, 40013]</t>
   </si>
   <si>
     <t>询问渔夫如何获得鱼竿。</t>
@@ -337,7 +334,7 @@
 </t>
   </si>
   <si>
-    <t>Talk@[10003,"{$description}"]</t>
+    <t>Talk@[10003,"{$description}", 0]</t>
   </si>
   <si>
     <t>集市里有时可以买到鱼饵，也可以通过野外采集获得。</t>
@@ -765,8 +762,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -794,8 +791,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,8 +836,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,93 +913,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,12 +926,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -950,7 +941,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,157 +1103,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,21 +1132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1159,17 +1141,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,13 +1165,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,9 +1197,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,148 +1225,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1707,10 +1704,10 @@
   <sheetPr/>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G42" sqref="G42"/>
+      <selection pane="topRight" activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
@@ -1721,7 +1718,7 @@
     <col min="4" max="4" width="26.4903846153846" customWidth="1"/>
     <col min="5" max="5" width="65.1057692307692" customWidth="1"/>
     <col min="6" max="6" width="43.6923076923077" customWidth="1"/>
-    <col min="7" max="7" width="74.8942307692308" customWidth="1"/>
+    <col min="7" max="7" width="41.9807692307692" customWidth="1"/>
     <col min="8" max="8" width="41.1057692307692" customWidth="1"/>
     <col min="9" max="9" width="22.1538461538462" customWidth="1"/>
     <col min="10" max="10" width="46.5576923076923" customWidth="1"/>
@@ -2308,7 +2305,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>40001</v>
       </c>
@@ -2321,11 +2318,8 @@
       <c r="E32" t="s">
         <v>76</v>
       </c>
-      <c r="G32" t="s">
+      <c r="F32" t="s">
         <v>77</v>
-      </c>
-      <c r="H32" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2339,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2353,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2367,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
         <v>81</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2387,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s">
         <v>84</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>85</v>
-      </c>
-      <c r="G36" t="s">
-        <v>86</v>
       </c>
       <c r="H36">
         <v>40008</v>
@@ -2410,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2424,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2438,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s">
         <v>89</v>
-      </c>
-      <c r="F39" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2455,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" t="s">
         <v>91</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>92</v>
-      </c>
-      <c r="H40" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2475,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
         <v>94</v>
-      </c>
-      <c r="G41" t="s">
-        <v>95</v>
       </c>
       <c r="H41">
         <v>40011</v>
@@ -2495,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" t="s">
         <v>96</v>
-      </c>
-      <c r="F42" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2512,16 +2506,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" t="s">
         <v>98</v>
-      </c>
-      <c r="G43" t="s">
-        <v>99</v>
       </c>
       <c r="H43">
         <v>40014</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2535,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" t="s">
         <v>101</v>
-      </c>
-      <c r="G44" t="s">
-        <v>102</v>
       </c>
       <c r="H44">
         <v>40015</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" ht="51" spans="1:6">
@@ -2558,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" t="s">
         <v>103</v>
-      </c>
-      <c r="F45" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2575,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2611,28 +2605,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>110</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>112</v>
-      </c>
-      <c r="H1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2643,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>114</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2658,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2669,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>117</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>118</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -2689,16 +2683,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>119</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>120</v>
-      </c>
-      <c r="F4" t="s">
-        <v>121</v>
       </c>
       <c r="G4">
         <v>10001</v>
@@ -2712,16 +2706,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>122</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>123</v>
-      </c>
-      <c r="F5" t="s">
-        <v>124</v>
       </c>
       <c r="G5">
         <v>10001</v>
@@ -2735,16 +2729,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>125</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>126</v>
-      </c>
-      <c r="F6" t="s">
-        <v>127</v>
       </c>
       <c r="G6">
         <v>10001</v>
@@ -2758,16 +2752,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>128</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>129</v>
-      </c>
-      <c r="F7" t="s">
-        <v>130</v>
       </c>
       <c r="G7">
         <v>10001</v>
@@ -2781,16 +2775,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>131</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>132</v>
-      </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8">
         <v>10001</v>
@@ -2824,22 +2818,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>135</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>136</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>137</v>
-      </c>
-      <c r="F1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2847,13 +2841,13 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2">
         <v>20001</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2861,13 +2855,13 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3">
         <v>20002</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2875,7 +2869,7 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4">
         <v>20004</v>
@@ -2886,7 +2880,7 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5">
         <v>20005</v>
@@ -2922,31 +2916,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>148</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>149</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>150</v>
-      </c>
-      <c r="I1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2960,10 +2954,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" t="s">
         <v>152</v>
-      </c>
-      <c r="E2" t="s">
-        <v>153</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -2983,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
         <v>154</v>
-      </c>
-      <c r="E3" t="s">
-        <v>155</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3006,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3029,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3052,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3075,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3098,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3121,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3144,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3167,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3190,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" t="s">
         <v>164</v>
-      </c>
-      <c r="E12" t="s">
-        <v>165</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3213,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" t="s">
         <v>166</v>
-      </c>
-      <c r="E13" t="s">
-        <v>167</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3236,10 +3230,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3248,10 +3242,10 @@
         <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3265,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" t="s">
         <v>170</v>
-      </c>
-      <c r="E15" t="s">
-        <v>171</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3288,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3311,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3334,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" t="s">
         <v>174</v>
-      </c>
-      <c r="E18" t="s">
-        <v>175</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3357,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" t="s">
         <v>176</v>
-      </c>
-      <c r="E19" t="s">
-        <v>177</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3378,13 +3372,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="2" width="14.5096153846154" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -3405,67 +3399,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
         <v>178</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>179</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>180</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>181</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>182</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>183</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>184</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>185</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>186</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>187</v>
       </c>
-      <c r="K1" t="s">
-        <v>188</v>
-      </c>
       <c r="L1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" t="s">
         <v>184</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>185</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>186</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>187</v>
       </c>
-      <c r="P1" t="s">
-        <v>188</v>
-      </c>
       <c r="Q1" t="s">
+        <v>183</v>
+      </c>
+      <c r="R1" t="s">
         <v>184</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>185</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>186</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>187</v>
-      </c>
-      <c r="U1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3473,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2">
         <v>10002</v>
@@ -3526,7 +3520,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3">
         <v>10004</v>
@@ -3559,6 +3553,47 @@
         <v>2</v>
       </c>
       <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:16">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10016</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>60</v>
+      </c>
+      <c r="L4">
+        <v>10017</v>
+      </c>
+      <c r="M4">
+        <v>99</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
     </row>
@@ -3574,7 +3609,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -3589,22 +3624,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" t="s">
         <v>191</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>192</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>193</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>194</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>195</v>
-      </c>
-      <c r="F1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3612,19 +3647,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>198</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3632,19 +3667,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>202</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>203</v>
-      </c>
-      <c r="F3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3652,19 +3687,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>206</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>207</v>
-      </c>
-      <c r="F4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3672,19 +3707,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>210</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>211</v>
-      </c>
-      <c r="F5" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3698,13 +3733,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" t="s">
         <v>213</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>214</v>
-      </c>
-      <c r="F6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3712,16 +3747,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>217</v>
-      </c>
-      <c r="E7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3729,19 +3764,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>219</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>220</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>221</v>
-      </c>
-      <c r="F8" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3749,16 +3784,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>223</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>224</v>
-      </c>
-      <c r="E9" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3791,40 +3826,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
         <v>178</v>
       </c>
-      <c r="B1" t="s">
-        <v>179</v>
-      </c>
       <c r="C1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" t="s">
         <v>226</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>227</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>228</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>229</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>230</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>231</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>232</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>233</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>234</v>
-      </c>
-      <c r="L1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3841,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" t="s">
         <v>236</v>
-      </c>
-      <c r="F2" t="s">
-        <v>237</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3879,10 +3914,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" t="s">
         <v>236</v>
-      </c>
-      <c r="F3" t="s">
-        <v>237</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3908,7 +3943,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3961,19 +3996,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
         <v>178</v>
       </c>
-      <c r="B1" t="s">
-        <v>179</v>
-      </c>
       <c r="C1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" t="s">
         <v>239</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>240</v>
-      </c>
-      <c r="E1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3981,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
         <v>242</v>
-      </c>
-      <c r="D2" t="s">
-        <v>243</v>
       </c>
       <c r="E2">
         <v>101</v>
@@ -3995,10 +4030,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E3">
         <v>101</v>

--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13760" tabRatio="528" activeTab="4"/>
+    <workbookView windowWidth="30240" windowHeight="13700" tabRatio="528"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Command" sheetId="4" r:id="rId6"/>
     <sheet name="Skill" sheetId="7" r:id="rId7"/>
     <sheet name="InteractMenuConfig" sheetId="8" r:id="rId8"/>
+    <sheet name="Quest" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="261">
   <si>
     <t>事件$ID$long</t>
   </si>
@@ -340,6 +341,18 @@
     <t>集市里有时可以买到鱼饵，也可以通过野外采集获得。</t>
   </si>
   <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>去迷踪林里打些野味充饥。</t>
+  </si>
+  <si>
+    <t>StartQuest@[1]</t>
+  </si>
+  <si>
+    <t>IsQuestStarted@[1]</t>
+  </si>
+  <si>
     <t>地点$ID$long</t>
   </si>
   <si>
@@ -691,9 +704,6 @@
     <t>#CurrentPlaceType==3</t>
   </si>
   <si>
-    <t>任务</t>
-  </si>
-  <si>
     <t>查看当前系统任务</t>
   </si>
   <si>
@@ -755,6 +765,48 @@
   </si>
   <si>
     <t>对话</t>
+  </si>
+  <si>
+    <t>任务$ID$long</t>
+  </si>
+  <si>
+    <t>任务类型$QuestType$int</t>
+  </si>
+  <si>
+    <t>任务名称$Title$string</t>
+  </si>
+  <si>
+    <t>任务描述$Description$string</t>
+  </si>
+  <si>
+    <t>任务需求$Requirement$string</t>
+  </si>
+  <si>
+    <t>任务奖励$Award$sting</t>
+  </si>
+  <si>
+    <t>任务开始回调$StartEffect$string</t>
+  </si>
+  <si>
+    <t>任务完成回调$CompleteEffect$string</t>
+  </si>
+  <si>
+    <t>任务终止回调$TerminateEffect$string</t>
+  </si>
+  <si>
+    <t>任务开始事件$StartEventID$long</t>
+  </si>
+  <si>
+    <t>任务结束事件$EndEventIDs$long[]</t>
+  </si>
+  <si>
+    <t>树林寻食</t>
+  </si>
+  <si>
+    <t>收集5颗浆果</t>
+  </si>
+  <si>
+    <t>StopInteractToNPC@</t>
   </si>
 </sst>
 </file>
@@ -762,10 +814,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -773,6 +825,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -800,7 +859,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,32 +879,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,37 +897,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,8 +926,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,6 +940,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -926,6 +978,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -941,7 +999,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,7 +1023,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,55 +1095,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,67 +1113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,13 +1137,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,15 +1189,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,6 +1223,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1205,168 +1272,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1702,23 +1754,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A29" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection pane="topRight" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="19.7692307692308" customWidth="1"/>
     <col min="2" max="2" width="26.5576923076923" customWidth="1"/>
-    <col min="3" max="3" width="21.0769230769231" customWidth="1"/>
-    <col min="4" max="4" width="26.4903846153846" customWidth="1"/>
-    <col min="5" max="5" width="65.1057692307692" customWidth="1"/>
-    <col min="6" max="6" width="43.6923076923077" customWidth="1"/>
-    <col min="7" max="7" width="41.9807692307692" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="14.2596153846154" customWidth="1"/>
+    <col min="5" max="5" width="65.3846153846154" customWidth="1"/>
+    <col min="6" max="6" width="44.7019230769231" customWidth="1"/>
+    <col min="7" max="7" width="30.9230769230769" customWidth="1"/>
     <col min="8" max="8" width="41.1057692307692" customWidth="1"/>
     <col min="9" max="9" width="22.1538461538462" customWidth="1"/>
     <col min="10" max="10" width="46.5576923076923" customWidth="1"/>
@@ -2478,7 +2530,7 @@
         <v>40011</v>
       </c>
     </row>
-    <row r="42" ht="34" spans="1:6">
+    <row r="42" ht="68" spans="1:6">
       <c r="A42">
         <v>40011</v>
       </c>
@@ -2541,7 +2593,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" ht="51" spans="1:6">
+    <row r="45" ht="68" spans="1:6">
       <c r="A45">
         <v>40014</v>
       </c>
@@ -2573,6 +2625,29 @@
       </c>
       <c r="F46" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>40016</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2605,28 +2680,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2637,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2652,7 +2727,7 @@
         <v>-1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2663,13 +2738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -2683,16 +2758,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G4">
         <v>10001</v>
@@ -2706,16 +2781,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G5">
         <v>10001</v>
@@ -2729,16 +2804,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G6">
         <v>10001</v>
@@ -2752,16 +2827,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G7">
         <v>10001</v>
@@ -2775,16 +2850,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G8">
         <v>10001</v>
@@ -2818,22 +2893,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2841,13 +2916,13 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C2">
         <v>20001</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2855,13 +2930,13 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C3">
         <v>20002</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2869,7 +2944,7 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C4">
         <v>20004</v>
@@ -2880,7 +2955,7 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C5">
         <v>20005</v>
@@ -2916,31 +2991,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2954,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -2977,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3000,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3023,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3046,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3069,10 +3144,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" t="s">
         <v>158</v>
-      </c>
-      <c r="E7" t="s">
-        <v>154</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3092,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3115,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3138,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3161,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3184,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3207,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3230,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3245,7 +3320,7 @@
         <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3259,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3282,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3305,10 +3380,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3328,10 +3403,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3351,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3374,8 +3449,8 @@
   <sheetPr/>
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="3"/>
@@ -3399,67 +3474,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="J1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" t="s">
         <v>187</v>
       </c>
-      <c r="L1" t="s">
-        <v>183</v>
-      </c>
       <c r="M1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q1" t="s">
         <v>187</v>
       </c>
-      <c r="Q1" t="s">
-        <v>183</v>
-      </c>
       <c r="R1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="S1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="T1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="U1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3467,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C2">
         <v>10002</v>
@@ -3520,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C3">
         <v>10004</v>
@@ -3561,7 +3636,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3624,22 +3699,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3647,19 +3722,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3667,19 +3742,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3687,19 +3762,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3707,19 +3782,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3733,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3747,16 +3822,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3764,19 +3839,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3784,16 +3859,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3826,40 +3901,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3876,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3914,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3943,7 +4018,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3996,19 +4071,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4016,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E2">
         <v>101</v>
@@ -4030,13 +4105,100 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E3">
         <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="2" width="30.7596153846154" customWidth="1"/>
+    <col min="3" max="3" width="30.125" customWidth="1"/>
+    <col min="4" max="4" width="41.8269230769231" customWidth="1"/>
+    <col min="5" max="5" width="18.8653846153846" customWidth="1"/>
+    <col min="6" max="6" width="12.2788461538462" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="41.8269230769231" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.9326923076923" customWidth="1"/>
+    <col min="10" max="10" width="43.5769230769231" customWidth="1"/>
+    <col min="11" max="11" width="37.3365384615385" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2">
+        <v>40016</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13700" tabRatio="528"/>
+    <workbookView windowHeight="23120" tabRatio="528"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="261">
   <si>
     <t>事件$ID$long</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>让医馆大夫为你把脉。</t>
+  </si>
+  <si>
+    <t>StopInteractToNPC@</t>
   </si>
   <si>
     <t>你觉得身体没有问题。</t>
@@ -804,9 +807,6 @@
   </si>
   <si>
     <t>收集5颗浆果</t>
-  </si>
-  <si>
-    <t>StopInteractToNPC@</t>
   </si>
 </sst>
 </file>
@@ -1756,10 +1756,10 @@
   <sheetPr/>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I47" sqref="I47"/>
+      <selection pane="topRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
@@ -2374,7 +2374,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>40002</v>
       </c>
@@ -2386,6 +2386,9 @@
       </c>
       <c r="E33" t="s">
         <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2399,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2413,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2433,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H36">
         <v>40008</v>
@@ -2456,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2470,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2484,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2501,13 +2504,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2521,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H41">
         <v>40011</v>
@@ -2541,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2558,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H43">
         <v>40014</v>
       </c>
       <c r="J43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2581,16 +2584,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H44">
         <v>40015</v>
       </c>
       <c r="J44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" ht="68" spans="1:6">
@@ -2604,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2621,10 +2624,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" t="s">
         <v>104</v>
-      </c>
-      <c r="F46" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2635,19 +2638,19 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2680,28 +2683,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2712,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2727,7 +2730,7 @@
         <v>-1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2738,13 +2741,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -2758,16 +2761,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4">
         <v>10001</v>
@@ -2781,16 +2784,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G5">
         <v>10001</v>
@@ -2804,16 +2807,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G6">
         <v>10001</v>
@@ -2827,16 +2830,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G7">
         <v>10001</v>
@@ -2850,16 +2853,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G8">
         <v>10001</v>
@@ -2893,22 +2896,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2916,13 +2919,13 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2">
         <v>20001</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2930,13 +2933,13 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>20002</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2944,7 +2947,7 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>20004</v>
@@ -2955,7 +2958,7 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>20005</v>
@@ -2991,31 +2994,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3029,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -3052,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3075,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
         <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>158</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3098,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3121,10 +3124,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3144,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3167,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3190,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3213,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3236,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3259,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3282,10 +3285,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3305,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" t="s">
         <v>171</v>
-      </c>
-      <c r="E14" t="s">
-        <v>170</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3317,10 +3320,10 @@
         <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3334,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3357,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" t="s">
         <v>175</v>
-      </c>
-      <c r="E16" t="s">
-        <v>174</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3380,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3403,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3426,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3474,67 +3477,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" t="s">
         <v>188</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>189</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>190</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>191</v>
       </c>
-      <c r="L1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q1" t="s">
         <v>188</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>189</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>190</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>191</v>
       </c>
-      <c r="Q1" t="s">
-        <v>187</v>
-      </c>
-      <c r="R1" t="s">
-        <v>188</v>
-      </c>
-      <c r="S1" t="s">
-        <v>189</v>
-      </c>
-      <c r="T1" t="s">
-        <v>190</v>
-      </c>
       <c r="U1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3542,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C2">
         <v>10002</v>
@@ -3595,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C3">
         <v>10004</v>
@@ -3636,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3699,22 +3702,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3722,19 +3725,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3742,19 +3745,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3762,19 +3765,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3782,19 +3785,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3808,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3822,16 +3825,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3839,19 +3842,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3859,16 +3862,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3901,40 +3904,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3951,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3989,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4018,7 +4021,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4071,19 +4074,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4091,10 +4094,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E2">
         <v>101</v>
@@ -4105,10 +4108,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" t="s">
         <v>246</v>
-      </c>
-      <c r="D3" t="s">
-        <v>245</v>
       </c>
       <c r="E3">
         <v>101</v>
@@ -4145,37 +4148,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4186,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="J2">
         <v>40016</v>

--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23120" tabRatio="528"/>
+    <workbookView windowWidth="30240" windowHeight="13840" tabRatio="528" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="263">
   <si>
     <t>事件$ID$long</t>
   </si>
@@ -389,12 +389,6 @@
     <t>20001, 20002, 20003, 20004, 20005</t>
   </si>
   <si>
-    <t>武昌城</t>
-  </si>
-  <si>
-    <t>wucang.city</t>
-  </si>
-  <si>
     <t>临安城药店</t>
   </si>
   <si>
@@ -437,6 +431,12 @@
     <t>jishi</t>
   </si>
   <si>
+    <t>神秘深林</t>
+  </si>
+  <si>
+    <t>shenlin</t>
+  </si>
+  <si>
     <t>人物$ID$long</t>
   </si>
   <si>
@@ -768,6 +768,12 @@
   </si>
   <si>
     <t>对话</t>
+  </si>
+  <si>
+    <t>进入</t>
+  </si>
+  <si>
+    <t>InteractToGate@</t>
   </si>
   <si>
     <t>任务$ID$long</t>
@@ -814,10 +820,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -829,9 +835,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -844,22 +865,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,16 +878,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,14 +904,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,17 +932,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,32 +963,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,7 +993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,13 +1005,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,127 +1035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,7 +1047,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,6 +1066,108 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,8 +1184,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,21 +1195,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,9 +1216,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,28 +1270,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1277,148 +1283,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1756,10 +1762,10 @@
   <sheetPr/>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F49" sqref="F49"/>
+      <selection pane="topRight" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
@@ -2533,7 +2539,7 @@
         <v>40011</v>
       </c>
     </row>
-    <row r="42" ht="68" spans="1:6">
+    <row r="42" ht="34" spans="1:6">
       <c r="A42">
         <v>40011</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" ht="68" spans="1:6">
+    <row r="45" ht="51" spans="1:6">
       <c r="A45">
         <v>40014</v>
       </c>
@@ -2662,13 +2668,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.61538461538461" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.5192307692308" customWidth="1"/>
     <col min="2" max="2" width="27.0961538461538" customWidth="1"/>
@@ -2735,10 +2741,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>10002</v>
+        <v>20001</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>121</v>
@@ -2749,28 +2755,31 @@
       <c r="E3" t="s">
         <v>122</v>
       </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
       <c r="G3">
-        <v>-1</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4">
         <v>10001</v>
@@ -2778,22 +2787,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20002</v>
+        <v>20003</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G5">
         <v>10001</v>
@@ -2801,22 +2810,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20003</v>
+        <v>20004</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G6">
         <v>10001</v>
@@ -2824,22 +2833,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20004</v>
+        <v>20005</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G7">
         <v>10001</v>
@@ -2847,25 +2856,142 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20005</v>
+        <v>10002</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>135</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="E8" t="s">
         <v>136</v>
       </c>
-      <c r="F8" t="s">
-        <v>128</v>
-      </c>
       <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9">
+        <v>10003</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9">
         <v>10001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:7">
+      <c r="A10">
+        <v>10004</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10">
+        <v>10001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:7">
+      <c r="A11">
+        <v>10005</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11">
+        <v>10001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:7">
+      <c r="A12">
+        <v>10006</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12">
+        <v>10001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13">
+        <v>10007</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13">
+        <v>10001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:7">
+      <c r="A14">
+        <v>10008</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14">
+        <v>10001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +3051,7 @@
         <v>20001</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2939,7 +3065,7 @@
         <v>20002</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4057,13 +4183,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.5096153846154" customWidth="1"/>
     <col min="2" max="2" width="16.3365384615385" customWidth="1"/>
@@ -4114,6 +4240,20 @@
         <v>246</v>
       </c>
       <c r="E3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4">
         <v>101</v>
       </c>
     </row>
@@ -4148,37 +4288,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4189,13 +4329,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D2" t="s">
         <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G2" t="s">
         <v>79</v>

--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13840" tabRatio="528" firstSheet="2" activeTab="7"/>
+    <workbookView windowHeight="23120" tabRatio="528" firstSheet="2"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="266">
   <si>
     <t>事件$ID$long</t>
   </si>
@@ -54,31 +54,40 @@
     <t>$Include$string</t>
   </si>
   <si>
-    <t>出生</t>
-  </si>
-  <si>
-    <t>你一觉醒来发现自己穿越了，周围都是陌生的环境。经过几天的了解发现这个世界是一个以武为尊的世界，没有一身武功都难以生存。好在你发现随身有个侠义系统，只要完成系统上的任务就可以获得相应的奖励。你坚信过不了多久就可以成为一代大侠。(现在你可以点击任务，查看当前任务信息)</t>
+    <t>逃亡</t>
+  </si>
+  <si>
+    <t>殿下，您看起来有些疲惫了，我们已经连续逃亡好几天了，需要在这里歇息一下才能恢复体力。</t>
+  </si>
+  <si>
+    <t>Talk@[10003, "{$description}", 1]</t>
+  </si>
+  <si>
+    <t>敌人一直在追杀我们，如今停下来恐怕是凶多吉少，只有继续前行穿过这片森林，才有甩开那些杀手。</t>
+  </si>
+  <si>
+    <t>Talk@[0, "{$description}", 1]</t>
+  </si>
+  <si>
+    <t>Event?[10001]</t>
+  </si>
+  <si>
+    <t>是，殿下。 我们的食物不多了，我去附近找下有没有可以充饥的食物。您时刻保持警惕，注意安全。</t>
+  </si>
+  <si>
+    <t>Event?[10002]</t>
+  </si>
+  <si>
+    <t>随从前往附近 寻找食物。不就之后。。。</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>你来到了{$Effect}。</t>
   </si>
   <si>
     <t>CurrentPlace@</t>
-  </si>
-  <si>
-    <t>死亡</t>
-  </si>
-  <si>
-    <t>你越来越虚弱，身体渐渐不受控制，最后失去了意识</t>
-  </si>
-  <si>
-    <t>你一觉醒来发现自己穿越了，周围都是陌生的环境。</t>
-  </si>
-  <si>
-    <t>你已经很久没有吃过任何食物了，可以去附近的酒楼想想办法。</t>
-  </si>
-  <si>
-    <t>移动</t>
-  </si>
-  <si>
-    <t>你来到了{$Effect}。</t>
   </si>
   <si>
     <t>交易</t>
@@ -820,10 +829,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -835,24 +844,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -863,9 +857,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,68 +876,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -956,6 +895,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -963,9 +910,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,6 +969,21 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -993,7 +1002,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +1044,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,25 +1146,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,127 +1170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,6 +1195,36 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,32 +1253,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1255,17 +1268,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,148 +1292,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1762,10 +1771,10 @@
   <sheetPr/>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
@@ -1774,7 +1783,7 @@
     <col min="2" max="2" width="26.5576923076923" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="14.2596153846154" customWidth="1"/>
-    <col min="5" max="5" width="65.3846153846154" customWidth="1"/>
+    <col min="5" max="5" width="143.134615384615" customWidth="1"/>
     <col min="6" max="6" width="44.7019230769231" customWidth="1"/>
     <col min="7" max="7" width="30.9230769230769" customWidth="1"/>
     <col min="8" max="8" width="41.1057692307692" customWidth="1"/>
@@ -1814,7 +1823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="57" customHeight="1" spans="1:6">
+    <row r="2" ht="57" customHeight="1" spans="1:8">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -1833,25 +1842,37 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3">
+        <v>10003</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -1865,7 +1886,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>10004</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1873,13 +1903,13 @@
         <v>10004</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1890,16 +1920,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1910,13 +1940,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1927,22 +1957,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1953,16 +1983,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1976,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>20004</v>
@@ -1993,19 +2023,19 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2019,10 +2049,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2036,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2053,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2070,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2084,19 +2114,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2110,13 +2140,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2130,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2144,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2161,10 +2191,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2178,16 +2208,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2201,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2215,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2229,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2243,16 +2273,16 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2266,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H26">
         <v>30021</v>
@@ -2286,13 +2316,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2306,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H28">
         <v>30022</v>
@@ -2326,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2340,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2354,13 +2384,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2374,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2391,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2408,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2422,13 +2452,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2442,13 +2472,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H36">
         <v>40008</v>
@@ -2465,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2479,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2493,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F39" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2510,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H40" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2530,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H41">
         <v>40011</v>
@@ -2550,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2567,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H43">
         <v>40014</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2590,19 +2620,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H44">
         <v>40015</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" ht="51" spans="1:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" ht="34" spans="1:6">
       <c r="A45">
         <v>40014</v>
       </c>
@@ -2613,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F45" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2630,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F46" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2644,19 +2674,19 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F47" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I47" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2719,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2721,13 +2751,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2736,7 +2766,7 @@
         <v>-1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2747,16 +2777,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G3">
         <v>10001</v>
@@ -2770,16 +2800,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G4">
         <v>10001</v>
@@ -2793,16 +2823,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G5">
         <v>10001</v>
@@ -2816,16 +2846,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G6">
         <v>10001</v>
@@ -2839,16 +2869,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G7">
         <v>10001</v>
@@ -2862,13 +2892,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D8">
         <v>10001</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -2882,13 +2912,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D9">
         <v>10001</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -2902,13 +2932,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D10">
         <v>10001</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -2922,13 +2952,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D11">
         <v>10001</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -2942,13 +2972,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D12">
         <v>10001</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -2962,13 +2992,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D13">
         <v>10001</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -2982,13 +3012,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D14">
         <v>10001</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -3022,22 +3052,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3045,13 +3075,13 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C2">
         <v>20001</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3059,13 +3089,13 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C3">
         <v>20002</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3073,7 +3103,7 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>20004</v>
@@ -3084,7 +3114,7 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C5">
         <v>20005</v>
@@ -3120,31 +3150,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3158,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -3181,10 +3211,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3204,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3227,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3250,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
         <v>162</v>
-      </c>
-      <c r="E6" t="s">
-        <v>159</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3273,10 +3303,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3296,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3319,10 +3349,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3342,10 +3372,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3365,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3388,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3411,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3434,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3446,10 +3476,10 @@
         <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3463,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3486,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3509,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3532,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3555,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3603,67 +3633,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L1" t="s">
         <v>191</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>192</v>
       </c>
-      <c r="L1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M1" t="s">
-        <v>189</v>
-      </c>
       <c r="N1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" t="s">
         <v>191</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" t="s">
-        <v>188</v>
-      </c>
-      <c r="R1" t="s">
-        <v>189</v>
-      </c>
       <c r="S1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="T1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="U1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3671,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C2">
         <v>10002</v>
@@ -3724,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C3">
         <v>10004</v>
@@ -3765,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3828,22 +3858,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3851,19 +3881,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3871,19 +3901,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3891,19 +3921,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3911,19 +3941,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3931,19 +3961,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3951,16 +3981,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3968,19 +3998,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3988,16 +4018,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4030,40 +4060,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4071,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4080,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4109,7 +4139,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4118,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4147,7 +4177,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4185,7 +4215,7 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4200,19 +4230,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4220,10 +4250,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E2">
         <v>101</v>
@@ -4234,10 +4264,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E3">
         <v>101</v>
@@ -4248,10 +4278,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E4">
         <v>101</v>
@@ -4288,37 +4318,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4329,16 +4359,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J2">
         <v>40016</v>

--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23120" tabRatio="528" firstSheet="2"/>
+    <workbookView windowHeight="22640" tabRatio="528"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="269">
   <si>
     <t>事件$ID$long</t>
   </si>
@@ -63,24 +63,36 @@
     <t>Talk@[10003, "{$description}", 1]</t>
   </si>
   <si>
+    <t>RandomEvent@[10002, 1]</t>
+  </si>
+  <si>
     <t>敌人一直在追杀我们，如今停下来恐怕是凶多吉少，只有继续前行穿过这片森林，才有甩开那些杀手。</t>
   </si>
   <si>
     <t>Talk@[0, "{$description}", 1]</t>
   </si>
   <si>
+    <t>RandomEvent@[10003, 1]</t>
+  </si>
+  <si>
     <t>Event?[10001]</t>
   </si>
   <si>
     <t>是，殿下。 我们的食物不多了，我去附近找下有没有可以充饥的食物。您时刻保持警惕，注意安全。</t>
   </si>
   <si>
+    <t>RandomEvent@[10004, 1]</t>
+  </si>
+  <si>
     <t>Event?[10002]</t>
   </si>
   <si>
     <t>随从前往附近 寻找食物。不就之后。。。</t>
   </si>
   <si>
+    <t>StopInteractToNPC@</t>
+  </si>
+  <si>
     <t>移动</t>
   </si>
   <si>
@@ -268,9 +280,6 @@
   </si>
   <si>
     <t>让医馆大夫为你把脉。</t>
-  </si>
-  <si>
-    <t>StopInteractToNPC@</t>
   </si>
   <si>
     <t>你觉得身体没有问题。</t>
@@ -829,8 +838,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -844,14 +853,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,10 +874,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -876,6 +886,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -895,21 +913,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -919,7 +922,29 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -928,7 +953,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,7 +968,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,14 +982,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -973,17 +990,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -996,7 +1005,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,13 +1089,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,150 +1189,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1193,8 +1202,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,6 +1224,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1225,30 +1249,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,6 +1264,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,148 +1301,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1774,7 +1783,7 @@
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
@@ -1842,6 +1851,9 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2">
         <v>10002</v>
       </c>
@@ -1860,16 +1872,19 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
       <c r="H3">
         <v>10003</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1886,19 +1901,22 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
       <c r="H4">
         <v>10004</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -1909,7 +1927,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1920,16 +1941,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1940,13 +1961,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1957,22 +1978,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1983,16 +2004,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2006,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>20004</v>
@@ -2023,19 +2044,19 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2049,10 +2070,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2066,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2083,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2100,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2114,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2140,13 +2161,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2160,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2174,10 +2195,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2191,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2208,16 +2229,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2231,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2245,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2259,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2273,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2296,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H26">
         <v>30021</v>
@@ -2316,13 +2337,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2336,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H28">
         <v>30022</v>
@@ -2356,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2370,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2384,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2404,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2421,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2438,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2452,13 +2473,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2472,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H36">
         <v>40008</v>
@@ -2495,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2509,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2523,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2540,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2560,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G41" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H41">
         <v>40011</v>
@@ -2580,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2597,16 +2618,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H43">
         <v>40014</v>
       </c>
       <c r="J43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2620,16 +2641,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H44">
         <v>40015</v>
       </c>
       <c r="J44" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" ht="34" spans="1:6">
@@ -2643,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F45" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2660,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F46" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2674,19 +2695,19 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I47" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2719,28 +2740,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2751,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2766,7 +2787,7 @@
         <v>-1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2777,16 +2798,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G3">
         <v>10001</v>
@@ -2800,16 +2821,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G4">
         <v>10001</v>
@@ -2823,16 +2844,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G5">
         <v>10001</v>
@@ -2846,16 +2867,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G6">
         <v>10001</v>
@@ -2869,16 +2890,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G7">
         <v>10001</v>
@@ -2892,13 +2913,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D8">
         <v>10001</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -2912,13 +2933,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D9">
         <v>10001</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -2932,13 +2953,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D10">
         <v>10001</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -2952,13 +2973,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D11">
         <v>10001</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -2972,13 +2993,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D12">
         <v>10001</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -2992,13 +3013,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D13">
         <v>10001</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -3012,13 +3033,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D14">
         <v>10001</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -3052,22 +3073,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3075,13 +3096,13 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2">
         <v>20001</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3089,13 +3110,13 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C3">
         <v>20002</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3103,7 +3124,7 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C4">
         <v>20004</v>
@@ -3114,7 +3135,7 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C5">
         <v>20005</v>
@@ -3150,31 +3171,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3188,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -3211,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3234,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3257,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3280,10 +3301,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s">
         <v>165</v>
-      </c>
-      <c r="E6" t="s">
-        <v>162</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3303,10 +3324,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3326,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3349,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3372,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3395,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3418,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3441,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3464,10 +3485,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3476,10 +3497,10 @@
         <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3493,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3516,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3539,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3562,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3585,10 +3606,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3633,67 +3654,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" t="s">
         <v>194</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>195</v>
       </c>
-      <c r="L1" t="s">
-        <v>191</v>
-      </c>
-      <c r="M1" t="s">
-        <v>192</v>
-      </c>
       <c r="N1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" t="s">
-        <v>191</v>
-      </c>
-      <c r="R1" t="s">
-        <v>192</v>
-      </c>
       <c r="S1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="T1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="U1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3701,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C2">
         <v>10002</v>
@@ -3754,7 +3775,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C3">
         <v>10004</v>
@@ -3795,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3858,22 +3879,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3881,19 +3902,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3901,19 +3922,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3921,19 +3942,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3941,19 +3962,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3961,19 +3982,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3981,16 +4002,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3998,19 +4019,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4018,16 +4039,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4060,40 +4081,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4101,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4110,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4139,7 +4160,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4148,10 +4169,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4177,7 +4198,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4230,19 +4251,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4250,10 +4271,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E2">
         <v>101</v>
@@ -4264,10 +4285,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E3">
         <v>101</v>
@@ -4278,10 +4299,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E4">
         <v>101</v>
@@ -4318,37 +4339,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="J1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4359,16 +4380,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="J2">
         <v>40016</v>

--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="272">
   <si>
     <t>事件$ID$long</t>
   </si>
@@ -60,7 +60,7 @@
     <t>殿下，您看起来有些疲惫了，我们已经连续逃亡好几天了，需要在这里歇息一下才能恢复体力。</t>
   </si>
   <si>
-    <t>Talk@[10003, "{$description}", 1]</t>
+    <t>(ShowNPCNearPlayer@[1, 0.8, 0]&amp;Talk@[1, "{$description}", 1])</t>
   </si>
   <si>
     <t>RandomEvent@[10002, 1]</t>
@@ -81,6 +81,9 @@
     <t>是，殿下。 我们的食物不多了，我去附近找下有没有可以充饥的食物。您时刻保持警惕，注意安全。</t>
   </si>
   <si>
+    <t>Talk@[1, "{$description}", 1]</t>
+  </si>
+  <si>
     <t>RandomEvent@[10004, 1]</t>
   </si>
   <si>
@@ -90,196 +93,199 @@
     <t>随从前往附近 寻找食物。不就之后。。。</t>
   </si>
   <si>
+    <t>(StopInteractToNPC@[]&amp;NPCMove@[1, 0, 10, 2]&amp;HideNPC@[1]&amp;@[2]&amp;DelaySeconds@[3])</t>
+  </si>
+  <si>
+    <t>RandomEvent@[10005, 1]</t>
+  </si>
+  <si>
+    <t>一群怪物围攻而上</t>
+  </si>
+  <si>
+    <t>RealTimeBattle@["AnimalSpawner", "Hyena",4, 4, 1]</t>
+  </si>
+  <si>
+    <t>交易</t>
+  </si>
+  <si>
+    <t>{$Effect}</t>
+  </si>
+  <si>
+    <t>抉择</t>
+  </si>
+  <si>
+    <t>一个衣衫褴褛的乞丐，向你乞讨。</t>
+  </si>
+  <si>
+    <t>Confirm@{$description} 你愿意给他点食物嘛？</t>
+  </si>
+  <si>
+    <t>20001, 20002</t>
+  </si>
+  <si>
+    <t>#Wealth&gt;=10</t>
+  </si>
+  <si>
+    <t>福运</t>
+  </si>
+  <si>
+    <t>乞丐送给你 {$Effect}</t>
+  </si>
+  <si>
+    <t>ReceiveItem@[10001, 1, 10002, 1, 10003, 1]</t>
+  </si>
+  <si>
+    <t>你没有给乞丐食物。</t>
+  </si>
+  <si>
+    <t>RandomEvent@[20004, 1]</t>
+  </si>
+  <si>
+    <t>报应</t>
+  </si>
+  <si>
+    <t>乞丐抢走了你的 {$Effect}</t>
+  </si>
+  <si>
+    <t>LostItem@[10000, 100]</t>
+  </si>
+  <si>
+    <t>(CountItem@[10000]&amp;{$0}&gt;=100)</t>
+  </si>
+  <si>
+    <t>你现在孤生一人，身无分文的你只有乞讨为生。</t>
+  </si>
+  <si>
+    <t>#Wealth&lt;1</t>
+  </si>
+  <si>
+    <t>听说{$Effect}发生了水灾，田里的粮食被大水冲走了。</t>
+  </si>
+  <si>
+    <t>TopLevelPlace@</t>
+  </si>
+  <si>
+    <t>听说{$Effect}发生了火灾，街上的许多店铺都被烧成了灰烬。</t>
+  </si>
+  <si>
+    <t>你放弃参加本次科考。</t>
+  </si>
+  <si>
+    <t>书院正在招收学员，要去参加吗？</t>
+  </si>
+  <si>
+    <t>Confirm@{$description}</t>
+  </si>
+  <si>
+    <t>30009, 30010</t>
+  </si>
+  <si>
+    <t>Event?[30009]</t>
+  </si>
+  <si>
+    <t>#Literary&gt;10</t>
+  </si>
+  <si>
+    <t>你来到书院参加考核。</t>
+  </si>
+  <si>
+    <t>RandomEvent@[30011, 2, 30012, 1, 30013, 1, 30016, 1]</t>
+  </si>
+  <si>
+    <t>30011, 30012, 30013, 30016</t>
+  </si>
+  <si>
+    <t>你放弃参加书院的考核。</t>
+  </si>
+  <si>
+    <t>你通过了书院的考核，成为了书院的学员。</t>
+  </si>
+  <si>
+    <t>#Literary&gt;15</t>
+  </si>
+  <si>
+    <t>书院嫌弃你的家世不好把你拒之门外。</t>
+  </si>
+  <si>
+    <t>#Wealth&lt;5</t>
+  </si>
+  <si>
+    <t>书院的考官暗示你给他点银子。</t>
+  </si>
+  <si>
+    <t>Confirm@{$description}是否给考官银子?</t>
+  </si>
+  <si>
+    <t>30014, 30015</t>
+  </si>
+  <si>
+    <t>#Wealth&gt;=8</t>
+  </si>
+  <si>
+    <t>考官收了你的银子，对你赞许有加，你顺利通过了考核。</t>
+  </si>
+  <si>
+    <t>考官收了你的银子，转头却公布你考核失败。</t>
+  </si>
+  <si>
+    <t>你没有通过书院的考核。</t>
+  </si>
+  <si>
+    <t>教书先生让你赋诗一首，你走了七步答到:</t>
+  </si>
+  <si>
+    <t>SelectEvent@["{$description}", 30018, 30019, 30020]</t>
+  </si>
+  <si>
+    <t>30018, 30019, 30020</t>
+  </si>
+  <si>
+    <t>Event?[30011, 30014]</t>
+  </si>
+  <si>
+    <t>离离头上草，一季一枯荣。</t>
+  </si>
+  <si>
+    <t>RandomEvent@[30021, 1]</t>
+  </si>
+  <si>
+    <t>夜深忽梦少年事，惟梦闲人不梦君。</t>
+  </si>
+  <si>
+    <t>RandomEvent@[30021, 1, 30022, 1]</t>
+  </si>
+  <si>
+    <t>30021, 30022</t>
+  </si>
+  <si>
+    <t>满堂花醉三千客，更无一人是知音。</t>
+  </si>
+  <si>
+    <t>RandomEvent@[30022, 1]</t>
+  </si>
+  <si>
+    <t>先生呵斥你为何做出如此荒诞的诗，随后摔门而去。</t>
+  </si>
+  <si>
+    <t>先生和同学都觉得你做的诗大为称颂，觉得你以后前途无量。</t>
+  </si>
+  <si>
+    <t>你复习了今天先生教的内容。感觉理解更深了。</t>
+  </si>
+  <si>
+    <t>ChangeProperty@["Literary", 1]</t>
+  </si>
+  <si>
+    <t>老板询问你是否来看病。</t>
+  </si>
+  <si>
+    <t>Talk@[10003,"{$description}", 0, 40002]</t>
+  </si>
+  <si>
+    <t>让医馆大夫为你把脉。</t>
+  </si>
+  <si>
     <t>StopInteractToNPC@</t>
-  </si>
-  <si>
-    <t>移动</t>
-  </si>
-  <si>
-    <t>你来到了{$Effect}。</t>
-  </si>
-  <si>
-    <t>CurrentPlace@</t>
-  </si>
-  <si>
-    <t>交易</t>
-  </si>
-  <si>
-    <t>{$Effect}</t>
-  </si>
-  <si>
-    <t>抉择</t>
-  </si>
-  <si>
-    <t>一个衣衫褴褛的乞丐，向你乞讨。</t>
-  </si>
-  <si>
-    <t>Confirm@{$description} 你愿意给他点食物嘛？</t>
-  </si>
-  <si>
-    <t>20001, 20002</t>
-  </si>
-  <si>
-    <t>#Wealth&gt;=10</t>
-  </si>
-  <si>
-    <t>福运</t>
-  </si>
-  <si>
-    <t>乞丐送给你 {$Effect}</t>
-  </si>
-  <si>
-    <t>ReceiveItem@[10001, 1, 10002, 1, 10003, 1]</t>
-  </si>
-  <si>
-    <t>你没有给乞丐食物。</t>
-  </si>
-  <si>
-    <t>RandomEvent@[20004, 1]</t>
-  </si>
-  <si>
-    <t>报应</t>
-  </si>
-  <si>
-    <t>乞丐抢走了你的 {$Effect}</t>
-  </si>
-  <si>
-    <t>LostItem@[10000, 100]</t>
-  </si>
-  <si>
-    <t>(CountItem@[10000]&amp;{$0}&gt;=100)</t>
-  </si>
-  <si>
-    <t>你现在孤生一人，身无分文的你只有乞讨为生。</t>
-  </si>
-  <si>
-    <t>#Wealth&lt;1</t>
-  </si>
-  <si>
-    <t>听说{$Effect}发生了水灾，田里的粮食被大水冲走了。</t>
-  </si>
-  <si>
-    <t>TopLevelPlace@</t>
-  </si>
-  <si>
-    <t>听说{$Effect}发生了火灾，街上的许多店铺都被烧成了灰烬。</t>
-  </si>
-  <si>
-    <t>你放弃参加本次科考。</t>
-  </si>
-  <si>
-    <t>书院正在招收学员，要去参加吗？</t>
-  </si>
-  <si>
-    <t>Confirm@{$description}</t>
-  </si>
-  <si>
-    <t>30009, 30010</t>
-  </si>
-  <si>
-    <t>Event?[30009]</t>
-  </si>
-  <si>
-    <t>#Literary&gt;10</t>
-  </si>
-  <si>
-    <t>你来到书院参加考核。</t>
-  </si>
-  <si>
-    <t>RandomEvent@[30011, 2, 30012, 1, 30013, 1, 30016, 1]</t>
-  </si>
-  <si>
-    <t>30011, 30012, 30013, 30016</t>
-  </si>
-  <si>
-    <t>你放弃参加书院的考核。</t>
-  </si>
-  <si>
-    <t>你通过了书院的考核，成为了书院的学员。</t>
-  </si>
-  <si>
-    <t>#Literary&gt;15</t>
-  </si>
-  <si>
-    <t>书院嫌弃你的家世不好把你拒之门外。</t>
-  </si>
-  <si>
-    <t>#Wealth&lt;5</t>
-  </si>
-  <si>
-    <t>书院的考官暗示你给他点银子。</t>
-  </si>
-  <si>
-    <t>Confirm@{$description}是否给考官银子?</t>
-  </si>
-  <si>
-    <t>30014, 30015</t>
-  </si>
-  <si>
-    <t>#Wealth&gt;=8</t>
-  </si>
-  <si>
-    <t>考官收了你的银子，对你赞许有加，你顺利通过了考核。</t>
-  </si>
-  <si>
-    <t>考官收了你的银子，转头却公布你考核失败。</t>
-  </si>
-  <si>
-    <t>你没有通过书院的考核。</t>
-  </si>
-  <si>
-    <t>教书先生让你赋诗一首，你走了七步答到:</t>
-  </si>
-  <si>
-    <t>SelectEvent@["{$description}", 30018, 30019, 30020]</t>
-  </si>
-  <si>
-    <t>30018, 30019, 30020</t>
-  </si>
-  <si>
-    <t>Event?[30011, 30014]</t>
-  </si>
-  <si>
-    <t>离离头上草，一季一枯荣。</t>
-  </si>
-  <si>
-    <t>RandomEvent@[30021, 1]</t>
-  </si>
-  <si>
-    <t>夜深忽梦少年事，惟梦闲人不梦君。</t>
-  </si>
-  <si>
-    <t>RandomEvent@[30021, 1, 30022, 1]</t>
-  </si>
-  <si>
-    <t>30021, 30022</t>
-  </si>
-  <si>
-    <t>满堂花醉三千客，更无一人是知音。</t>
-  </si>
-  <si>
-    <t>RandomEvent@[30022, 1]</t>
-  </si>
-  <si>
-    <t>先生呵斥你为何做出如此荒诞的诗，随后摔门而去。</t>
-  </si>
-  <si>
-    <t>先生和同学都觉得你做的诗大为称颂，觉得你以后前途无量。</t>
-  </si>
-  <si>
-    <t>你复习了今天先生教的内容。感觉理解更深了。</t>
-  </si>
-  <si>
-    <t>ChangeProperty@["Literary", 1]</t>
-  </si>
-  <si>
-    <t>老板询问你是否来看病。</t>
-  </si>
-  <si>
-    <t>Talk@[10003,"{$description}", 0, 40002]</t>
-  </si>
-  <si>
-    <t>让医馆大夫为你把脉。</t>
   </si>
   <si>
     <t>你觉得身体没有问题。</t>
@@ -759,6 +765,9 @@
   </si>
   <si>
     <t>$Level$int</t>
+  </si>
+  <si>
+    <t>移动</t>
   </si>
   <si>
     <t>(BattleMove@&amp;BattleEffect@)</t>
@@ -838,8 +847,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -853,7 +862,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,24 +875,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,11 +898,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -929,8 +922,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,11 +937,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -959,16 +952,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,14 +968,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,6 +1011,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1017,25 +1032,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,13 +1068,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,7 +1122,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,7 +1164,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,61 +1182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,31 +1194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,6 +1205,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1238,21 +1256,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1268,11 +1271,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1301,148 +1310,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1783,7 +1792,7 @@
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F8" sqref="F8"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
@@ -1793,7 +1802,7 @@
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="14.2596153846154" customWidth="1"/>
     <col min="5" max="5" width="143.134615384615" customWidth="1"/>
-    <col min="6" max="6" width="44.7019230769231" customWidth="1"/>
+    <col min="6" max="6" width="111.076923076923" customWidth="1"/>
     <col min="7" max="7" width="30.9230769230769" customWidth="1"/>
     <col min="8" max="8" width="41.1057692307692" customWidth="1"/>
     <col min="9" max="9" width="22.1538461538462" customWidth="1"/>
@@ -1904,33 +1913,42 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>10004</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>10005</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1938,19 +1956,19 @@
         <v>10005</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1961,13 +1979,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1978,22 +1996,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2004,16 +2022,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2027,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>20004</v>
@@ -2044,19 +2062,19 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2070,10 +2088,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2087,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2104,10 +2122,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
         <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2121,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2135,19 +2153,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2161,13 +2179,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2181,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2195,10 +2213,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2212,10 +2230,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2229,16 +2247,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2252,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2266,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2280,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2294,16 +2312,16 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2317,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26">
         <v>30021</v>
@@ -2337,13 +2355,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2357,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H28">
         <v>30022</v>
@@ -2377,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2391,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2405,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2425,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2442,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2459,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2473,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2493,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H36">
         <v>40008</v>
@@ -2516,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2530,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2544,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2561,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2581,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H41">
         <v>40011</v>
@@ -2601,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2618,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H43">
         <v>40014</v>
       </c>
       <c r="J43" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2641,16 +2659,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G44" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H44">
         <v>40015</v>
       </c>
       <c r="J44" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" ht="34" spans="1:6">
@@ -2664,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2681,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2695,19 +2713,19 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I47" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2740,28 +2758,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2772,13 +2790,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2787,7 +2805,7 @@
         <v>-1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2798,16 +2816,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G3">
         <v>10001</v>
@@ -2821,16 +2839,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G4">
         <v>10001</v>
@@ -2844,16 +2862,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5">
         <v>10001</v>
@@ -2867,16 +2885,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G6">
         <v>10001</v>
@@ -2890,16 +2908,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G7">
         <v>10001</v>
@@ -2913,13 +2931,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D8">
         <v>10001</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -2933,13 +2951,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D9">
         <v>10001</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -2953,13 +2971,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D10">
         <v>10001</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -2973,13 +2991,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D11">
         <v>10001</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -2993,13 +3011,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D12">
         <v>10001</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -3013,13 +3031,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D13">
         <v>10001</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -3033,13 +3051,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D14">
         <v>10001</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -3073,22 +3091,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3096,13 +3114,13 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2">
         <v>20001</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3110,13 +3128,13 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C3">
         <v>20002</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3124,7 +3142,7 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C4">
         <v>20004</v>
@@ -3135,7 +3153,7 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C5">
         <v>20005</v>
@@ -3171,31 +3189,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3209,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -3232,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3255,10 +3273,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3278,10 +3296,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" t="s">
         <v>167</v>
-      </c>
-      <c r="E5" t="s">
-        <v>165</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3301,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3324,10 +3342,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3347,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3370,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3393,10 +3411,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3416,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3439,10 +3457,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3462,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3485,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3497,10 +3515,10 @@
         <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3514,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3537,10 +3555,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3560,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" t="s">
         <v>183</v>
-      </c>
-      <c r="E17" t="s">
-        <v>181</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3583,10 +3601,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3606,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3654,67 +3672,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" t="s">
         <v>196</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>198</v>
       </c>
-      <c r="L1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q1" t="s">
         <v>196</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>198</v>
       </c>
-      <c r="Q1" t="s">
-        <v>194</v>
-      </c>
-      <c r="R1" t="s">
-        <v>195</v>
-      </c>
-      <c r="S1" t="s">
-        <v>196</v>
-      </c>
       <c r="T1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="U1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3722,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C2">
         <v>10002</v>
@@ -3775,7 +3793,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C3">
         <v>10004</v>
@@ -3816,7 +3834,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3879,22 +3897,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3902,19 +3920,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3922,19 +3940,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3942,19 +3960,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3962,19 +3980,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3982,19 +4000,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4002,16 +4020,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4019,19 +4037,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4039,16 +4057,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4081,40 +4099,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4122,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4131,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4160,7 +4178,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4169,10 +4187,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4198,7 +4216,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4251,19 +4269,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4271,10 +4289,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E2">
         <v>101</v>
@@ -4285,10 +4303,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E3">
         <v>101</v>
@@ -4299,10 +4317,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E4">
         <v>101</v>
@@ -4339,37 +4357,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4380,16 +4398,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="J2">
         <v>40016</v>

--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22640" tabRatio="528"/>
+    <workbookView windowWidth="30240" windowHeight="13700" tabRatio="528"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <t>随从前往附近 寻找食物。不就之后。。。</t>
   </si>
   <si>
-    <t>(StopInteractToNPC@[]&amp;NPCMove@[1, 0, 10, 2]&amp;HideNPC@[1]&amp;@[2]&amp;DelaySeconds@[3])</t>
+    <t>(StopInteractToNPC@[]&amp;NPCMoveToNearGate@[1, 2]&amp;HideNPC@[1]&amp;@[2]&amp;DelaySeconds@[3])</t>
   </si>
   <si>
     <t>RandomEvent@[10005, 1]</t>
@@ -847,10 +847,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -858,13 +858,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -883,18 +876,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -906,9 +898,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,16 +937,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,36 +983,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,14 +1000,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,7 +1026,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,49 +1110,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,7 +1158,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,91 +1194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,11 +1208,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,37 +1227,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1272,16 +1257,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1296,162 +1305,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1790,9 +1790,9 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>

--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13700" tabRatio="528"/>
+    <workbookView windowHeight="23120" tabRatio="528"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="273">
   <si>
     <t>事件$ID$long</t>
   </si>
@@ -102,13 +102,16 @@
     <t>一群怪物围攻而上</t>
   </si>
   <si>
-    <t>RealTimeBattle@["AnimalSpawner", "Hyena",4, 4, 1]</t>
+    <t>(PlaceBattleComplete@[1,  10006]&amp;RealTimeBattle@["AnimalSpawner", "Hyena",4, 4, 1])</t>
   </si>
   <si>
     <t>交易</t>
   </si>
   <si>
-    <t>{$Effect}</t>
+    <t>来到了一个村庄。</t>
+  </si>
+  <si>
+    <t>MapJump@[0, -10, -10]</t>
   </si>
   <si>
     <t>抉择</t>
@@ -847,10 +850,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -868,8 +871,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,22 +972,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,17 +993,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,74 +1003,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,7 +1023,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,7 +1041,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,13 +1071,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,67 +1167,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,61 +1185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,21 +1208,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1235,38 +1223,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1288,15 +1261,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1305,153 +1269,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1792,7 +1795,7 @@
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F5" sqref="F5"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
@@ -1971,7 +1974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -1986,6 +1989,9 @@
       </c>
       <c r="E7" t="s">
         <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1996,22 +2002,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2022,16 +2028,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2045,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>20004</v>
@@ -2062,19 +2068,19 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2088,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2105,10 +2111,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2122,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
         <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2139,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2153,19 +2159,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2179,13 +2185,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2199,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2213,10 +2219,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2230,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2247,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2270,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2284,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2298,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2312,16 +2318,16 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2335,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H26">
         <v>30021</v>
@@ -2355,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2375,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28">
         <v>30022</v>
@@ -2395,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2409,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2423,13 +2429,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2443,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2460,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2477,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2491,13 +2497,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2511,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H36">
         <v>40008</v>
@@ -2534,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2548,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2562,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2579,13 +2585,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2599,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H41">
         <v>40011</v>
@@ -2619,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2636,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H43">
         <v>40014</v>
       </c>
       <c r="J43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2659,16 +2665,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H44">
         <v>40015</v>
       </c>
       <c r="J44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" ht="34" spans="1:6">
@@ -2682,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2699,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" t="s">
         <v>113</v>
-      </c>
-      <c r="F46" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2713,19 +2719,19 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2758,28 +2764,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2790,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2805,7 +2811,7 @@
         <v>-1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2816,16 +2822,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G3">
         <v>10001</v>
@@ -2839,16 +2845,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4">
         <v>10001</v>
@@ -2862,16 +2868,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G5">
         <v>10001</v>
@@ -2885,16 +2891,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G6">
         <v>10001</v>
@@ -2908,16 +2914,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7">
         <v>10001</v>
@@ -2931,13 +2937,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D8">
         <v>10001</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -2951,13 +2957,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D9">
         <v>10001</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -2971,13 +2977,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D10">
         <v>10001</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -2991,13 +2997,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D11">
         <v>10001</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -3011,13 +3017,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D12">
         <v>10001</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -3031,13 +3037,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D13">
         <v>10001</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -3051,13 +3057,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D14">
         <v>10001</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -3091,22 +3097,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3114,13 +3120,13 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2">
         <v>20001</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3128,13 +3134,13 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C3">
         <v>20002</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3142,7 +3148,7 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>20004</v>
@@ -3153,7 +3159,7 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5">
         <v>20005</v>
@@ -3189,31 +3195,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3227,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -3250,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3273,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
         <v>168</v>
-      </c>
-      <c r="E4" t="s">
-        <v>167</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3296,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3319,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3342,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3365,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3388,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3411,10 +3417,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3434,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3457,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3480,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3503,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" t="s">
         <v>180</v>
-      </c>
-      <c r="E14" t="s">
-        <v>179</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3515,10 +3521,10 @@
         <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3532,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3555,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" t="s">
         <v>184</v>
-      </c>
-      <c r="E16" t="s">
-        <v>183</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3578,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3601,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3624,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3672,67 +3678,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" t="s">
         <v>197</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>198</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>199</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>200</v>
       </c>
-      <c r="L1" t="s">
-        <v>196</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>198</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>199</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>200</v>
       </c>
-      <c r="Q1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R1" t="s">
-        <v>197</v>
-      </c>
-      <c r="S1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T1" t="s">
-        <v>199</v>
-      </c>
       <c r="U1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3740,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C2">
         <v>10002</v>
@@ -3793,7 +3799,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C3">
         <v>10004</v>
@@ -3834,7 +3840,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3897,22 +3903,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3920,19 +3926,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3940,19 +3946,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3960,19 +3966,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3980,19 +3986,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4006,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4020,16 +4026,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4037,19 +4043,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4057,16 +4063,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4099,40 +4105,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4140,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4149,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4178,7 +4184,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4187,10 +4193,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4216,7 +4222,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4269,19 +4275,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4289,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E2">
         <v>101</v>
@@ -4303,10 +4309,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" t="s">
         <v>256</v>
-      </c>
-      <c r="D3" t="s">
-        <v>255</v>
       </c>
       <c r="E3">
         <v>101</v>
@@ -4317,10 +4323,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E4">
         <v>101</v>
@@ -4357,37 +4363,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4398,16 +4404,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J2">
         <v>40016</v>

--- a/Excels/Events.xlsx
+++ b/Excels/Events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23120" tabRatio="528"/>
+    <workbookView windowWidth="30240" windowHeight="13720" tabRatio="528"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="273">
   <si>
     <t>事件$ID$long</t>
   </si>
@@ -66,6 +66,9 @@
     <t>RandomEvent@[10002, 1]</t>
   </si>
   <si>
+    <t>Event?[10001]</t>
+  </si>
+  <si>
     <t>敌人一直在追杀我们，如今停下来恐怕是凶多吉少，只有继续前行穿过这片森林，才有甩开那些杀手。</t>
   </si>
   <si>
@@ -73,9 +76,6 @@
   </si>
   <si>
     <t>RandomEvent@[10003, 1]</t>
-  </si>
-  <si>
-    <t>Event?[10001]</t>
   </si>
   <si>
     <t>是，殿下。 我们的食物不多了，我去附近找下有没有可以充饥的食物。您时刻保持警惕，注意安全。</t>
@@ -850,10 +850,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -871,11 +871,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -888,25 +894,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -918,8 +916,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -934,6 +933,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -941,45 +948,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,6 +965,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1002,7 +987,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1023,7 +1023,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +1053,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,13 +1089,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,19 +1107,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,19 +1131,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,13 +1173,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,73 +1197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,24 +1208,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1270,6 +1252,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1293,168 +1308,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1793,9 +1793,9 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.8"/>
@@ -1805,7 +1805,7 @@
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="14.2596153846154" customWidth="1"/>
     <col min="5" max="5" width="143.134615384615" customWidth="1"/>
-    <col min="6" max="6" width="111.076923076923" customWidth="1"/>
+    <col min="6" max="6" width="79.7692307692308" customWidth="1"/>
     <col min="7" max="7" width="30.9230769230769" customWidth="1"/>
     <col min="8" max="8" width="41.1057692307692" customWidth="1"/>
     <col min="9" max="9" width="22.1538461538462" customWidth="1"/>
@@ -1844,7 +1844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="57" customHeight="1" spans="1:8">
+    <row r="2" ht="57" customHeight="1" spans="1:9">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -1868,6 +1868,9 @@
       </c>
       <c r="H2">
         <v>10002</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1884,19 +1887,19 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>10003</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
